--- a/dataset/SCCM Sample Data Set.xlsx
+++ b/dataset/SCCM Sample Data Set.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vivek S\OneDrive\Desktop\AI LLM POC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikhil/Workspace/InsightHub/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8358F8E1-11E2-4F59-85EC-518DC5AEB984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554110B5-D11A-5F41-B72D-4B610BFE0907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{2D4F693A-4EC4-45CB-81C8-553F8953E241}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" xr2:uid="{2D4F693A-4EC4-45CB-81C8-553F8953E241}"/>
   </bookViews>
   <sheets>
     <sheet name="SCCM Sample Data Set" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'SCCM Sample Data Set'!$A$1:$AB$12</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'SCCM Sample Data Set'!$A$1:$AB$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,91 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="240">
-  <si>
-    <t>Column1</t>
-  </si>
-  <si>
-    <t>Column2</t>
-  </si>
-  <si>
-    <t>Column3</t>
-  </si>
-  <si>
-    <t>Column4</t>
-  </si>
-  <si>
-    <t>Column5</t>
-  </si>
-  <si>
-    <t>Column6</t>
-  </si>
-  <si>
-    <t>Column7</t>
-  </si>
-  <si>
-    <t>Column8</t>
-  </si>
-  <si>
-    <t>Column9</t>
-  </si>
-  <si>
-    <t>Column10</t>
-  </si>
-  <si>
-    <t>Column11</t>
-  </si>
-  <si>
-    <t>Column12</t>
-  </si>
-  <si>
-    <t>Column13</t>
-  </si>
-  <si>
-    <t>Column14</t>
-  </si>
-  <si>
-    <t>Column15</t>
-  </si>
-  <si>
-    <t>Column16</t>
-  </si>
-  <si>
-    <t>Column17</t>
-  </si>
-  <si>
-    <t>Column18</t>
-  </si>
-  <si>
-    <t>Column19</t>
-  </si>
-  <si>
-    <t>Column20</t>
-  </si>
-  <si>
-    <t>Column21</t>
-  </si>
-  <si>
-    <t>Column22</t>
-  </si>
-  <si>
-    <t>Column23</t>
-  </si>
-  <si>
-    <t>Column24</t>
-  </si>
-  <si>
-    <t>Column25</t>
-  </si>
-  <si>
-    <t>Column26</t>
-  </si>
-  <si>
-    <t>Column27</t>
-  </si>
-  <si>
-    <t>Column28</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="212">
   <si>
     <t>Device</t>
   </si>
@@ -807,10 +723,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -914,8 +829,8 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{1C892B5B-6366-4912-96E9-EFBD77A30640}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="29">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" headers="0" connectionId="1" xr16:uid="{1C892B5B-6366-4912-96E9-EFBD77A30640}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+  <queryTableRefresh headersInLastRefresh="0" nextId="29">
     <queryTableFields count="28">
       <queryTableField id="1" name="Column1" tableColumnId="1"/>
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
@@ -951,8 +866,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95A4A01F-240D-449B-99F8-4A0870135D02}" name="SCCM_Sample_Data_Set" displayName="SCCM_Sample_Data_Set" ref="A1:AB12" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:AB12" xr:uid="{95A4A01F-240D-449B-99F8-4A0870135D02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{95A4A01F-240D-449B-99F8-4A0870135D02}" name="SCCM_Sample_Data_Set" displayName="SCCM_Sample_Data_Set" ref="A1:AB11" tableType="queryTable" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="28">
     <tableColumn id="1" xr3:uid="{B341DE0D-1B5F-48A6-8268-C2E9408F07EC}" uniqueName="1" name="Column1" queryTableFieldId="1" dataDxfId="27"/>
     <tableColumn id="2" xr3:uid="{4D339B8A-9FC6-4327-8F0B-D3AECB345D65}" uniqueName="2" name="Column2" queryTableFieldId="2" dataDxfId="26"/>
@@ -988,9 +902,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1028,7 +942,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1134,7 +1048,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1276,7 +1190,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1284,27 +1198,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7476367-005D-4F12-9B7F-D4B154370BB0}">
-  <dimension ref="A1:AB12"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="18" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="20" max="28" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="18" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="28" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1312,1028 +1226,942 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="B2" t="s">
         <v>27</v>
       </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>44</v>
+      </c>
+      <c r="U2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" t="s">
+        <v>67</v>
+      </c>
+      <c r="U3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>70</v>
+      </c>
+      <c r="X3" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" t="s">
+        <v>81</v>
+      </c>
+      <c r="K4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O4" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>87</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="s">
+        <v>89</v>
+      </c>
+      <c r="T4" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" t="s">
+        <v>91</v>
+      </c>
+      <c r="V4" t="s">
+        <v>92</v>
+      </c>
+      <c r="W4" t="s">
+        <v>93</v>
+      </c>
+      <c r="X4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L5" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O5" t="s">
+        <v>110</v>
+      </c>
+      <c r="P5" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>112</v>
+      </c>
+      <c r="R5" t="s">
+        <v>112</v>
+      </c>
+      <c r="S5" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" t="s">
+        <v>112</v>
+      </c>
+      <c r="U5" t="s">
+        <v>112</v>
+      </c>
+      <c r="V5" t="s">
+        <v>112</v>
+      </c>
+      <c r="W5" t="s">
+        <v>112</v>
+      </c>
+      <c r="X5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
+        <v>118</v>
+      </c>
+      <c r="H6" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" t="s">
+        <v>120</v>
+      </c>
+      <c r="J6" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" t="s">
+        <v>122</v>
+      </c>
+      <c r="L6" t="s">
+        <v>123</v>
+      </c>
+      <c r="M6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O6" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R6" t="s">
+        <v>127</v>
+      </c>
+      <c r="S6" t="s">
+        <v>128</v>
+      </c>
+      <c r="T6" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" t="s">
+        <v>130</v>
+      </c>
+      <c r="V6" t="s">
+        <v>97</v>
+      </c>
+      <c r="W6" t="s">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="I7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M7" t="s">
+        <v>141</v>
+      </c>
+      <c r="N7" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="2" t="s">
+      <c r="O7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>144</v>
+      </c>
+      <c r="R7" t="s">
+        <v>145</v>
+      </c>
+      <c r="S7" t="s">
+        <v>146</v>
+      </c>
+      <c r="T7" t="s">
+        <v>147</v>
+      </c>
+      <c r="U7" t="s">
+        <v>148</v>
+      </c>
+      <c r="V7" t="s">
+        <v>149</v>
+      </c>
+      <c r="W7" t="s">
+        <v>150</v>
+      </c>
+      <c r="X7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z7" t="s">
         <v>48</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="AA7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>158</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>161</v>
+      </c>
+      <c r="I8" t="s">
+        <v>158</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" t="s">
+        <v>165</v>
+      </c>
+      <c r="P8" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>167</v>
+      </c>
+      <c r="R8" t="s">
+        <v>168</v>
+      </c>
+      <c r="S8" t="s">
+        <v>97</v>
+      </c>
+      <c r="T8" t="s">
+        <v>112</v>
+      </c>
+      <c r="U8" t="s">
+        <v>112</v>
+      </c>
+      <c r="V8" t="s">
+        <v>112</v>
+      </c>
+      <c r="W8" t="s">
+        <v>112</v>
+      </c>
+      <c r="X8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" t="s">
+        <v>178</v>
+      </c>
+      <c r="N9" t="s">
+        <v>179</v>
+      </c>
+      <c r="O9" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>182</v>
+      </c>
+      <c r="R9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T9" t="s">
+        <v>112</v>
+      </c>
+      <c r="U9" t="s">
+        <v>112</v>
+      </c>
+      <c r="V9" t="s">
+        <v>112</v>
+      </c>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" t="s">
+        <v>190</v>
+      </c>
+      <c r="I10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" t="s">
+        <v>191</v>
+      </c>
+      <c r="K10" t="s">
+        <v>192</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>193</v>
+      </c>
+      <c r="O10" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>196</v>
+      </c>
+      <c r="R10" t="s">
+        <v>112</v>
+      </c>
+      <c r="S10" t="s">
+        <v>112</v>
+      </c>
+      <c r="T10" t="s">
+        <v>112</v>
+      </c>
+      <c r="U10" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" t="s">
+        <v>112</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" t="s">
+        <v>199</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J11" t="s">
+        <v>203</v>
+      </c>
+      <c r="K11" t="s">
+        <v>204</v>
+      </c>
+      <c r="L11" t="s">
+        <v>205</v>
+      </c>
+      <c r="M11" t="s">
+        <v>206</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>207</v>
+      </c>
+      <c r="P11" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>209</v>
+      </c>
+      <c r="R11" t="s">
+        <v>210</v>
+      </c>
+      <c r="S11" t="s">
+        <v>211</v>
+      </c>
+      <c r="T11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U11" t="s">
         <v>49</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="V11" t="s">
         <v>50</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="W11" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB3" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="V4" s="2" t="s">
+      <c r="X11" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z11" t="s">
         <v>97</v>
       </c>
-      <c r="W4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="S5" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="U5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="X5" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="Y5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AA5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB5" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="S8" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="U8" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="V8" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="X8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y8" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA8" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S9" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA9" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB9" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA10" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB10" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB11" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="V12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y12" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>140</v>
+      <c r="AA11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2350,9 +2178,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
